--- a/experiments/meth1-logs/chunk-size/1g.xlsx
+++ b/experiments/meth1-logs/chunk-size/1g.xlsx
@@ -8,14 +8,16 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="211" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PQ Sort" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Merge Sort" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="50G" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Read Model</t>
   </si>
@@ -81,16 +83,61 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>Network Model</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>First-Chunk</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Network-2G</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t># 1</t>
+  </si>
+  <si>
+    <t>50GB</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>cmd-read</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,###"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -172,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +238,30 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -265,7 +336,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -326,7 +397,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$18</c:f>
+              <c:f>'PQ Sort'!$B$5:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -376,7 +447,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$18</c:f>
+              <c:f>'PQ Sort'!$D$5:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -460,7 +531,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$18</c:f>
+              <c:f>'PQ Sort'!$B$5:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -510,7 +581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$18</c:f>
+              <c:f>'PQ Sort'!$E$5:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -574,11 +645,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="29067211"/>
-        <c:axId val="36659842"/>
+        <c:axId val="59344363"/>
+        <c:axId val="85418156"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29067211"/>
+        <c:axId val="59344363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,14 +685,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36659842"/>
+        <c:crossAx val="85418156"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36659842"/>
+        <c:axId val="85418156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +737,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29067211"/>
+        <c:crossAx val="59344363"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -691,7 +762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -752,7 +823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$B$12</c:f>
+              <c:f>'PQ Sort'!$B$6:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -781,7 +852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$12</c:f>
+              <c:f>'PQ Sort'!$F$6:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -824,11 +895,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="4381769"/>
-        <c:axId val="74611404"/>
+        <c:axId val="74887596"/>
+        <c:axId val="30692376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4381769"/>
+        <c:axId val="74887596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,14 +935,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74611404"/>
+        <c:crossAx val="30692376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74611404"/>
+        <c:axId val="30692376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +967,213 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4381769"/>
+        <c:crossAx val="74887596"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>50G!$C$18,50G!$C$20,50G!$C$22,50G!$C$24,50G!$C$26,50G!$C$28,50G!$C$30,50G!$C$32,50G!$C$34,50G!$C$36,50G!$C$38,50G!$C$40,50G!$C$42,50G!$C$44,50G!$C$46,50G!$C$48,50G!$C$50,50G!$C$52,50G!$C$54,50G!$C$56,50G!$C$58,50G!$C$60,50G!$C$62,50G!$C$64,50G!$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>191330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>154980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>146401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>146075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
+        <c:marker val="0"/>
+        <c:axId val="32757565"/>
+        <c:axId val="40858318"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="32757565"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="40858318"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40858318"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="32757565"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -986,6 +1263,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3511800" y="507240"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -994,7 +1306,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1313,4 +1625,984 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">B2/B1</f>
+        <v>32.5732899022801</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">(D6-E6)/E6</f>
+        <v>-0.0368098159509203</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>10485</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">(D7-E7)/E7</f>
+        <v>-0.0306748466257669</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">A8*100/1024/1024</f>
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">(D8-E8)/E8</f>
+        <v>0.398773006134969</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2621440</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">A9*100/1024/1024</f>
+        <v>250</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">(D9-E9)/E9</f>
+        <v>0.530674846625767</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5242880</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">A10*100/1024/1024</f>
+        <v>500</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">(D10-E10)/E10</f>
+        <v>0.634969325153374</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>7864320</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">A11*100/1024/1024</f>
+        <v>750</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">(D11-E11)/E11</f>
+        <v>0.717791411042945</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">(D12-E12)/E12</f>
+        <v>0.843558282208589</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="false">(D13-E13)/E13</f>
+        <v>1.32822085889571</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">C5+C7</f>
+        <v>4571.66123778502</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">B3/2000*C6</f>
+        <v>4071.66123778502</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <f aca="false">B3/B1</f>
+        <v>162.866449511401</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">B3/B2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">2000/B2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">SUM(C11:C12)</f>
+        <v>4425.561</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">(C66+C64+C64+C62+C60+C58+C56+C54+C52+C50+C48+C46+C44+C42+C40+C38+C36+C34+C32+C30+C28+C26+C24+C22+C20+C18)/1000</f>
+        <v>3873.114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">(C67+C65+C63+C61+C59+C57+C55+C53+C51+C49+C47+C45+C43+C41+C39+C37+C35+C33+C31+C29+C27+C25+C23+C21+C19)/1000</f>
+        <v>552.447</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8" t="n">
+        <f aca="false">SUM(C70:C71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <f aca="false">C10/C4</f>
+        <v>0.968042199501247</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>20971520</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>191330</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>22908</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>168088</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>21973</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>168779</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>22022</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>164360</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>22039</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>162905</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>161475</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>22046</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>158894</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>22215</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>161105</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>22025</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>161521</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>22162</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>154980</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>22067</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>153510</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>22111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>149168</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>21980</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>149930</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>146401</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>22033</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>146075</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>147882</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>22077</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>141965</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>139077</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>22013</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>136192</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>22188</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>133463</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>21973</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>130388</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>22040</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>127841</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>22041</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>131761</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>22011</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>128637</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>22085</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>128750</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>22169</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>4297646</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiments/meth1-logs/chunk-size/1g.xlsx
+++ b/experiments/meth1-logs/chunk-size/1g.xlsx
@@ -4,15 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="211" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PQ Sort" sheetId="1" r:id="rId1"/>
     <sheet name="Merge Sort" sheetId="2" r:id="rId2"/>
     <sheet name="50G" sheetId="3" r:id="rId3"/>
+    <sheet name="100G" sheetId="4" r:id="rId4"/>
+    <sheet name="150G" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_1.bad" localSheetId="3">'100G'!$A$8:$E$59</definedName>
+    <definedName name="_1.bad_1" localSheetId="4">'150G'!$A$8:$E$70</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,8 +26,35 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="1.bad.log" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:davidt:Projects:bad:experiments:meth1-logs:big-files:100g:1.bad.log" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="1.bad.log1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:davidt:Projects:bad:experiments:meth1-logs:big-files:150g:1.bad.log" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
   <si>
     <t>Read Model</t>
   </si>
@@ -89,6 +121,15 @@
   <si>
     <t>cmd-read</t>
   </si>
+  <si>
+    <t>100G</t>
+  </si>
+  <si>
+    <t>Chunk Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150g</t>
+  </si>
 </sst>
 </file>
 
@@ -141,8 +182,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -185,6 +248,17 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +266,17 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,7 +382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -530,11 +614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134419144"/>
-        <c:axId val="2134420552"/>
+        <c:axId val="2092468568"/>
+        <c:axId val="2093097336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134419144"/>
+        <c:axId val="2092468568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,14 +645,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134420552"/>
+        <c:crossAx val="2093097336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134420552"/>
+        <c:axId val="2093097336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -600,21 +683,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134419144"/>
+        <c:crossAx val="2092468568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -813,11 +894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138866152"/>
-        <c:axId val="2142010056"/>
+        <c:axId val="2093140136"/>
+        <c:axId val="2093143112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138866152"/>
+        <c:axId val="2093140136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142010056"/>
+        <c:crossAx val="2093143112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142010056"/>
+        <c:axId val="2093143112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138866152"/>
+        <c:crossAx val="2093140136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,11 +1093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141650712"/>
-        <c:axId val="2141652744"/>
+        <c:axId val="2093180824"/>
+        <c:axId val="2093183800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141650712"/>
+        <c:axId val="2093180824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141652744"/>
+        <c:crossAx val="2093183800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141652744"/>
+        <c:axId val="2093183800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141650712"/>
+        <c:crossAx val="2093180824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1188,11 +1269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135513640"/>
-        <c:axId val="2135430808"/>
+        <c:axId val="2092454184"/>
+        <c:axId val="2092513416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135513640"/>
+        <c:axId val="2092454184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135430808"/>
+        <c:crossAx val="2092513416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135430808"/>
+        <c:axId val="2092513416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1301,245 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135513640"/>
+        <c:crossAx val="2092454184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('100G'!$F$2,'100G'!$F$3,'100G'!$F$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('100G'!$J$2,'100G'!$J$3,'100G'!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.0591762247440961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.043727790207372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.167603113164357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2134020568"/>
+        <c:axId val="2134005960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134020568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134005960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134005960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134020568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('150G'!$F$2,'150G'!$F$3,'150G'!$F$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('150G'!$J$2,'150G'!$J$3,'150G'!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0342441253080674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0635635300129902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.184396970306612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2134465048"/>
+        <c:axId val="2133931816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134465048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133931816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133931816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134465048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,6 +1689,84 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2268,7 +2665,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2298,6 +2695,9 @@
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3009,4 +3409,1622 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>307</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <f>G3+G5</f>
+        <v>9143.3224755700321</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C60/1000</f>
+        <v>9718.4220000000005</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2/H2</f>
+        <v>0.94082377525590388</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2-1</f>
+        <v>-5.9176224744096118E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5">
+        <f>B3/B4*G4</f>
+        <v>8143.3224755700321</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUMIF($A$9:$A$60,"read",$C$9:$C$60)/1000</f>
+        <v>8515.6949999999997</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3/H3</f>
+        <v>0.95627220979262795</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3-1</f>
+        <v>-4.3727790207372053E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <f>B3/B1</f>
+        <v>325.73289902280129</v>
+      </c>
+      <c r="H4" s="5">
+        <f>H3/(B3/B4)</f>
+        <v>340.62779999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4/H4</f>
+        <v>0.95627220979262795</v>
+      </c>
+      <c r="J4" s="3">
+        <f>I4-1</f>
+        <v>-4.3727790207372053E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>B3/B2</f>
+        <v>1000</v>
+      </c>
+      <c r="H5" s="5">
+        <f>SUMIF($A$9:$A$60,"network",$C$9:$C$60)/1000</f>
+        <v>1201.3499999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G5/H5</f>
+        <v>0.83239688683564328</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5-1</f>
+        <v>-0.16760311316435672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f>B4/B2</f>
+        <v>40</v>
+      </c>
+      <c r="H6" s="5">
+        <f>H5/(B3/B4)</f>
+        <v>48.053999999999995</v>
+      </c>
+      <c r="I6" s="3">
+        <f>G6/H6</f>
+        <v>0.83239688683564328</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6-1</f>
+        <v>-0.16760311316435672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="H7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41943040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>389165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>49690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>385934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>48066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>376777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>47958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>374966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>48130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>372684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>47914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>367950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>48088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>366039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>373677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>48022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>365013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>48012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>362778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>47982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>357146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>47957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>353474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>48089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>346293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>47954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>341517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>48074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>335292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>47930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>330101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>47943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>323876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>47922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>321694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>47986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>316404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>47860</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>305474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>47962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>295398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>47960</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>289110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>47998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>287367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>48009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>289517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>47934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>288049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>47941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>9718422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>307</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <f>G3+G5</f>
+        <v>16157.980456026058</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C70/1000</f>
+        <v>15622.985000000001</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2/H2</f>
+        <v>1.0342441253080674</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2-1</f>
+        <v>3.4244125308067419E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>150000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5">
+        <f>B3/B4*G4</f>
+        <v>14657.980456026058</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUMIF($A$9:$A$70,"read",$C$9:$C$70)/1000</f>
+        <v>13781.950999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3/H3</f>
+        <v>1.0635635300129902</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3-1</f>
+        <v>6.3563530012990199E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <f>B3/B1</f>
+        <v>488.59934853420197</v>
+      </c>
+      <c r="H4" s="5">
+        <f>H3/(B3/B4)</f>
+        <v>459.39836666666662</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4/H4</f>
+        <v>1.0635635300129902</v>
+      </c>
+      <c r="J4" s="3">
+        <f>I4-1</f>
+        <v>6.3563530012990199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>B3/B2</f>
+        <v>1500</v>
+      </c>
+      <c r="H5" s="5">
+        <f>SUMIF($A$9:$A$70,"network",$C$9:$C$70)/1000</f>
+        <v>1839.13</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G5/H5</f>
+        <v>0.8156030296933876</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5-1</f>
+        <v>-0.1843969703066124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f>B4/B2</f>
+        <v>50</v>
+      </c>
+      <c r="H6" s="5">
+        <f>H5/(B3/B4)</f>
+        <v>61.304333333333339</v>
+      </c>
+      <c r="I6" s="3">
+        <f>G6/H6</f>
+        <v>0.8156030296933876</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6-1</f>
+        <v>-0.1843969703066124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>52428800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>531431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>63434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>542412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>61221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>539600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>61257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>550562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>61269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>552093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>61270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>520445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>61411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>518243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>61416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>508495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>61119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>507403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>61056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>497036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>61004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>494637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>61250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>490037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>61400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>486798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>61223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>476679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>61267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>469567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>61388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>462903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>61223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>454407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>61469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>460978</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>61243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>442548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>61243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>431620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>61251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>427843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>61299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>417661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>61133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>406892</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>61071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>397725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>60963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>387851</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>61049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>376107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>61211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>363696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>61418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>357178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>61043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>354434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>61226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>29</v>
+      </c>
+      <c r="C68">
+        <v>354670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>61303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>15622985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/experiments/meth1-logs/chunk-size/1g.xlsx
+++ b/experiments/meth1-logs/chunk-size/1g.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="211" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="323"/>
   </bookViews>
   <sheets>
     <sheet name="PQ Sort" sheetId="1" r:id="rId1"/>
     <sheet name="Merge Sort" sheetId="2" r:id="rId2"/>
-    <sheet name="50G" sheetId="3" r:id="rId3"/>
-    <sheet name="100G" sheetId="4" r:id="rId4"/>
-    <sheet name="150G" sheetId="5" r:id="rId5"/>
+    <sheet name="Big Read" sheetId="7" r:id="rId3"/>
+    <sheet name="50G" sheetId="3" r:id="rId4"/>
+    <sheet name="100G" sheetId="4" r:id="rId5"/>
+    <sheet name="150G" sheetId="5" r:id="rId6"/>
+    <sheet name="200G" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_1.bad" localSheetId="3">'100G'!$A$8:$E$59</definedName>
-    <definedName name="_1.bad_1" localSheetId="4">'150G'!$A$8:$E$70</definedName>
+    <definedName name="_1.bad" localSheetId="4">'100G'!$A$8:$E$59</definedName>
+    <definedName name="_1.bad" localSheetId="6">'200G'!$A$1:$E$52</definedName>
+    <definedName name="_1.bad_1" localSheetId="5">'150G'!$A$8:$E$70</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +43,18 @@
     </textPr>
   </connection>
   <connection id="2" name="1.bad.log1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:davidt:Projects:bad:experiments:meth1-logs:big-files:150g:1.bad.log" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:davidt:Projects:bad:experiments:meth1-logs:big-files:150g:1.bad.log" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="1.bad.log2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:davidt:Projects:bad:experiments:meth1-logs:big-files:200g:1.bad.log" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -54,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="36">
   <si>
     <t>Read Model</t>
   </si>
@@ -130,13 +144,47 @@
   <si>
     <t xml:space="preserve"> 150g</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 200g</t>
+  </si>
+  <si>
+    <t>Error %</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>Chunk Percentage</t>
+  </si>
+  <si>
+    <t>Model Network</t>
+  </si>
+  <si>
+    <t>Model Disk</t>
+  </si>
+  <si>
+    <t>Max-Read</t>
+  </si>
+  <si>
+    <t>Min-Read</t>
+  </si>
+  <si>
+    <t>Max Read</t>
+  </si>
+  <si>
+    <t>Min Read</t>
+  </si>
+  <si>
+    <t>Max/Min Read</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -182,7 +230,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,8 +268,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,8 +329,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +352,27 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -277,6 +391,27 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,6 +517,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -614,11 +750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092468568"/>
-        <c:axId val="2093097336"/>
+        <c:axId val="2117054952"/>
+        <c:axId val="2116232888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092468568"/>
+        <c:axId val="2117054952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,13 +781,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093097336"/>
+        <c:crossAx val="2116232888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -659,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093097336"/>
+        <c:axId val="2116232888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -683,19 +820,847 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092468568"/>
+        <c:crossAx val="2117054952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('150G'!$F$2,'150G'!$F$3,'150G'!$F$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('150G'!$J$2,'150G'!$J$3,'150G'!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0130718222127808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0203562616062125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0404670238901322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2117261048"/>
+        <c:axId val="2117258088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2117261048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117258088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2117258088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117261048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('200G'!$F$2,'200G'!$F$3,'200G'!$F$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('200G'!$J$2,'200G'!$J$3,'200G'!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.0032856010675838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00528797357651212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0583365010501078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2116760520"/>
+        <c:axId val="2116625320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2116760520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116625320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2116625320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116760520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Disk Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200G'!$F$62:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>739.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>735.668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>741.496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>727.354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>742.777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>739.348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>709.905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>702.173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>695.326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>683.648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>670.9109999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>663.026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>629.103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>616.206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>626.601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>613.167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>603.943</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>584.946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>572.558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>523.388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>480.296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>471.673</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>472.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200G'!$G$62:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>645.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2144680984"/>
+        <c:axId val="-2144682056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2144680984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144682056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144682056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144680984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Network Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200G'!$F$90:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>103.135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.763</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.817</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.773</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.806</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.741</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200G'!$G$90:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2116745960"/>
+        <c:axId val="-2119629144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2116745960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119629144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119629144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116745960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -894,11 +1859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093140136"/>
-        <c:axId val="2093143112"/>
+        <c:axId val="2116156568"/>
+        <c:axId val="2116153576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093140136"/>
+        <c:axId val="2116156568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093143112"/>
+        <c:crossAx val="2116153576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093143112"/>
+        <c:axId val="2116153576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +1892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093140136"/>
+        <c:crossAx val="2116156568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -963,19 +1928,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Read Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50G'!$E$1</c:f>
+              <c:f>'Big Read'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,55 +1967,59 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'50G'!$D$2:$D$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Read</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>First-Chunk</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Network</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50G'!$E$2:$E$5</c:f>
+              <c:f>'Big Read'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4571.661237785016</c:v>
+                  <c:v>4660.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4071.661237785016</c:v>
+                  <c:v>9320.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.8664495114006</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>500.0</c:v>
+                  <c:v>15827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18482.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50G'!$F$1</c:f>
+              <c:f>'Big Read'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1041,48 +2028,52 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'50G'!$D$2:$D$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Read</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>First-Chunk</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Network</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50G'!$F$2:$F$5</c:f>
+              <c:f>'Big Read'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4580.48556</c:v>
+                  <c:v>4580.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3873.114</c:v>
+                  <c:v>9718.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.92456</c:v>
+                  <c:v>15623.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>552.447</c:v>
+                  <c:v>18543.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1092,21 +2083,23 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2093180824"/>
-        <c:axId val="2093183800"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2146131144"/>
+        <c:axId val="-2142773352"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="2093180824"/>
+        <c:axId val="-2146131144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093183800"/>
+        <c:crossAx val="-2142773352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,7 +2107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093183800"/>
+        <c:axId val="-2142773352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +2118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093180824"/>
+        <c:crossAx val="-2146131144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,104 +2154,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Big Read'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'50G'!$D$2:$D$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Read</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>First-Chunk</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Network</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'50G'!$H$2:$H$5</c:f>
+              <c:f>'Big Read'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.00192650366416258</c:v>
+                  <c:v>0.017467248908297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0512629470201538</c:v>
+                  <c:v>-0.0409549289977361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0512629470201538</c:v>
+                  <c:v>0.0130576713819368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0949358037965633</c:v>
+                  <c:v>-0.00328965108127055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'50G'!$D$2:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Read</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>First-Chunk</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Network</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'50G'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1268,21 +2233,23 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2092454184"/>
-        <c:axId val="2092513416"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2143185176"/>
+        <c:axId val="-2142323528"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="2092454184"/>
+        <c:axId val="-2143185176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092513416"/>
+        <c:crossAx val="-2142323528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1290,7 +2257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092513416"/>
+        <c:axId val="-2142323528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092454184"/>
+        <c:crossAx val="-2143185176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1319,6 +2286,692 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Observed Machine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Big Read'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Big Read'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Big Read'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Big Read'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2124647944"/>
+        <c:axId val="2090665000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2124647944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090665000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090665000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124647944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min/Max Read</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Big Read'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Big Read'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115960424"/>
+        <c:axId val="-2115548248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2115960424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115548248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115548248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115960424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50G'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'50G'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>First-Chunk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'50G'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4659.896531902662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4071.661237785016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.8664495114006</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>588.235294117647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50G'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'50G'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>First-Chunk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'50G'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4580.48556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3873.114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.92456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>552.447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2116116328"/>
+        <c:axId val="2116113368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2116116328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116113368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2116113368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116116328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('50G'!$F$2,'50G'!$F$3,'50G'!$F$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('50G'!$J$2,'50G'!$J$3,'50G'!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0173368021495657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0512629470201538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0647814072981609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2118041000"/>
+        <c:axId val="2118043960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2118041000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118043960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2118043960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118041000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1367,13 +3020,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.0591762247440961</c:v>
+                  <c:v>-0.0410178665008244</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.043727790207372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.167603113164357</c:v>
+                  <c:v>-0.0207095448992431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,11 +3041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2134020568"/>
-        <c:axId val="2134005960"/>
+        <c:axId val="2118089928"/>
+        <c:axId val="2118092872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134020568"/>
+        <c:axId val="2118089928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +3054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134005960"/>
+        <c:crossAx val="2118092872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134005960"/>
+        <c:axId val="2118092872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,126 +3073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134020568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>('150G'!$F$2,'150G'!$F$3,'150G'!$F$5)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Read</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Network</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('150G'!$J$2,'150G'!$J$3,'150G'!$J$5)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0342441253080674</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0635635300129902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.184396970306612</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2134465048"/>
-        <c:axId val="2133931816"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2134465048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133931816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2133931816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134465048"/>
+        <c:crossAx val="2118089928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,16 +3164,141 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>613834</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91017</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1660,16 +3319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14816</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>613834</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>91016</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1691,7 +3350,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1726,20 +3385,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1761,12 +3420,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2662,157 +4420,368 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4660</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4580</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2/C2 - 1</f>
+        <v>1.7467248908296984E-2</v>
+      </c>
+      <c r="E2">
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <v>323</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>307</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="11">
+        <v>9320</v>
+      </c>
+      <c r="C3" s="11">
+        <v>9718</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3/C3 - 1</f>
+        <v>-4.0954928997736118E-2</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>294</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>307</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4" s="11">
+        <v>15827</v>
+      </c>
+      <c r="C4" s="11">
+        <v>15623</v>
+      </c>
+      <c r="D4" s="3">
+        <f>B4/C4 - 1</f>
+        <v>1.3057671381936808E-2</v>
+      </c>
+      <c r="E4">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>327</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>307</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="11">
+        <v>18482</v>
+      </c>
+      <c r="C5" s="11">
+        <v>18543</v>
+      </c>
+      <c r="D5" s="3">
+        <f>B5/C5 - 1</f>
+        <v>-3.2896510812705504E-3</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>312</v>
+      </c>
+      <c r="G5">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>307</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
+    <col min="3" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>307</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10">
+        <f>B3*(B3/B4)/H3</f>
+        <v>322.73772473518721</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B4/H6</f>
+        <v>90.506419620343678</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
-        <f>E3+E5</f>
-        <v>4571.6612377850161</v>
-      </c>
-      <c r="F2" s="4">
-        <f>SUM(F3:F5)</f>
+      <c r="G2" s="4">
+        <f>G3+G5</f>
+        <v>4659.8965319026629</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(H3:H5)</f>
         <v>4580.4855600000001</v>
       </c>
-      <c r="G2" s="3">
-        <f>E2/F2</f>
-        <v>0.99807349633583742</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2-1</f>
-        <v>-1.9265036641625821E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="3">
+        <f>G2/H2</f>
+        <v>1.0173368021495657</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2-1</f>
+        <v>1.7336802149565678E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>50000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
-        <f>B3/2000*E4</f>
+      <c r="G3" s="5">
+        <f>B3/2000*G4</f>
         <v>4071.6612377850161</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <f>(C59+C57+C57+C55+C53+C51+C49+C47+C45+C43+C41+C39+C37+C35+C33+C31+C29+C27+C25+C23+C21+C19+C17+C15+C13+C11)/1000</f>
         <v>3873.114</v>
       </c>
-      <c r="G3" s="3">
-        <f>E3/F3</f>
+      <c r="I3" s="3">
+        <f>G3/H3</f>
         <v>1.0512629470201538</v>
       </c>
-      <c r="H3" s="3">
-        <f>G3-1</f>
+      <c r="J3" s="3">
+        <f>I3-1</f>
         <v>5.1262947020153771E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="D4" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <f>B3/B1</f>
         <v>162.86644951140065</v>
       </c>
-      <c r="F4" s="5">
-        <f>F3/25</f>
+      <c r="H4" s="5">
+        <f>H3/25</f>
         <v>154.92456000000001</v>
       </c>
-      <c r="G4" s="3">
-        <f>E4/F4</f>
+      <c r="I4" s="3">
+        <f>G4/H4</f>
         <v>1.0512629470201538</v>
       </c>
-      <c r="H4" s="3">
-        <f>G4-1</f>
+      <c r="J4" s="3">
+        <f>I4-1</f>
         <v>5.1262947020153771E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="D5" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <f>B4/B3</f>
+        <v>0.04</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f>B3/B2</f>
-        <v>500</v>
-      </c>
-      <c r="F5" s="6">
+        <v>588.23529411764707</v>
+      </c>
+      <c r="H5" s="6">
         <f>(C60+C58+C56+C54+C52+C50+C48+C46+C44+C42+C40+C38+C36+C34+C32+C30+C28+C26+C24+C22+C20+C18+C16+C14+C12)/1000</f>
         <v>552.447</v>
       </c>
-      <c r="G5" s="3">
-        <f>E5/F5</f>
-        <v>0.9050641962034367</v>
-      </c>
-      <c r="H5" s="3">
-        <f>G5-1</f>
-        <v>-9.4935803796563301E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="D6" t="s">
+      <c r="I5" s="3">
+        <f>G5/H5</f>
+        <v>1.064781407298161</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5-1</f>
+        <v>6.4781407298160953E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f>2000/B2</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="10">
-        <f>F5/25</f>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="H6" s="10">
+        <f>H5/25</f>
         <v>22.09788</v>
       </c>
-      <c r="G6" s="3">
-        <f>E6/F6</f>
-        <v>0.9050641962034367</v>
-      </c>
-      <c r="H6" s="3">
-        <f>G6-1</f>
-        <v>-9.4935803796563301E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I6" s="3">
+        <f>G6/H6</f>
+        <v>1.064781407298161</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6-1</f>
+        <v>6.4781407298160953E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5">
+        <f>C11</f>
+        <v>191330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5">
+        <f>C59</f>
+        <v>128750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2822,8 +4791,14 @@
       <c r="C9" s="8">
         <v>20971520</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="3">
+        <f>G8/G7</f>
+        <v>0.67292113103015727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2833,8 +4808,10 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2844,8 +4821,10 @@
       <c r="C11" s="5">
         <v>191330</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2855,8 +4834,10 @@
       <c r="C12" s="5">
         <v>22908</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2866,8 +4847,10 @@
       <c r="C13" s="5">
         <v>168088</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2877,8 +4860,10 @@
       <c r="C14" s="5">
         <v>21973</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2888,8 +4873,10 @@
       <c r="C15" s="5">
         <v>168779</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2899,8 +4886,10 @@
       <c r="C16" s="5">
         <v>22022</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2910,8 +4899,10 @@
       <c r="C17" s="5">
         <v>164360</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2921,8 +4912,10 @@
       <c r="C18" s="5">
         <v>22039</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2932,8 +4925,10 @@
       <c r="C19" s="5">
         <v>162905</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2943,8 +4938,10 @@
       <c r="C20" s="5">
         <v>22101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2954,8 +4951,10 @@
       <c r="C21" s="5">
         <v>161475</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2965,8 +4964,10 @@
       <c r="C22" s="5">
         <v>22046</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2976,8 +4977,10 @@
       <c r="C23" s="5">
         <v>158894</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2987,8 +4990,10 @@
       <c r="C24" s="5">
         <v>22215</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2998,8 +5003,10 @@
       <c r="C25" s="5">
         <v>161105</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3009,8 +5016,10 @@
       <c r="C26" s="5">
         <v>22025</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3020,8 +5029,10 @@
       <c r="C27" s="5">
         <v>161521</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3031,8 +5042,10 @@
       <c r="C28" s="5">
         <v>22162</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3042,8 +5055,10 @@
       <c r="C29" s="5">
         <v>154980</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3053,8 +5068,10 @@
       <c r="C30" s="5">
         <v>22067</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3064,8 +5081,10 @@
       <c r="C31" s="5">
         <v>153510</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3075,8 +5094,10 @@
       <c r="C32" s="5">
         <v>22111</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3086,8 +5107,10 @@
       <c r="C33" s="5">
         <v>149168</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3097,8 +5120,10 @@
       <c r="C34" s="5">
         <v>21980</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3108,8 +5133,10 @@
       <c r="C35" s="5">
         <v>149930</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -3119,8 +5146,10 @@
       <c r="C36" s="5">
         <v>22166</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3130,8 +5159,10 @@
       <c r="C37" s="5">
         <v>146401</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -3141,8 +5172,10 @@
       <c r="C38" s="5">
         <v>22033</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3152,8 +5185,10 @@
       <c r="C39" s="5">
         <v>146075</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3163,8 +5198,10 @@
       <c r="C40" s="5">
         <v>22002</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3174,8 +5211,10 @@
       <c r="C41" s="5">
         <v>147882</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3185,8 +5224,10 @@
       <c r="C42" s="5">
         <v>22077</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3196,8 +5237,10 @@
       <c r="C43" s="5">
         <v>141965</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3207,8 +5250,10 @@
       <c r="C44" s="5">
         <v>22000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3218,8 +5263,10 @@
       <c r="C45" s="5">
         <v>139077</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3229,8 +5276,10 @@
       <c r="C46" s="5">
         <v>22013</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3240,8 +5289,10 @@
       <c r="C47" s="5">
         <v>136192</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3251,8 +5302,10 @@
       <c r="C48" s="5">
         <v>22188</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3262,8 +5315,10 @@
       <c r="C49" s="5">
         <v>133463</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3273,8 +5328,10 @@
       <c r="C50" s="5">
         <v>21973</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3284,8 +5341,10 @@
       <c r="C51" s="5">
         <v>130388</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3295,8 +5354,10 @@
       <c r="C52" s="5">
         <v>22040</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3306,8 +5367,10 @@
       <c r="C53" s="5">
         <v>127841</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3317,8 +5380,10 @@
       <c r="C54" s="5">
         <v>22041</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3328,8 +5393,10 @@
       <c r="C55" s="5">
         <v>131761</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3339,8 +5406,10 @@
       <c r="C56" s="5">
         <v>22011</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3350,8 +5419,10 @@
       <c r="C57" s="5">
         <v>128637</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3361,8 +5432,10 @@
       <c r="C58" s="5">
         <v>22085</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3372,8 +5445,10 @@
       <c r="C59" s="5">
         <v>128750</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3383,8 +5458,10 @@
       <c r="C60" s="5">
         <v>22169</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3394,6 +5471,8 @@
       <c r="C61" s="5">
         <v>4297646</v>
       </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3411,19 +5490,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3435,6 +5514,10 @@
       <c r="B1">
         <v>307</v>
       </c>
+      <c r="C1" s="10">
+        <f>B3*(B3/B4)/H3</f>
+        <v>293.5755684063368</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3447,17 +5530,18 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B4/H6</f>
+        <v>83.239688683564339</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4">
         <f>G3+G5</f>
-        <v>9143.3224755700321</v>
+        <v>9319.7930638053258</v>
       </c>
       <c r="H2" s="4">
         <f>C60/1000</f>
@@ -3465,11 +5549,11 @@
       </c>
       <c r="I2" s="3">
         <f>G2/H2</f>
-        <v>0.94082377525590388</v>
+        <v>0.9589821334991756</v>
       </c>
       <c r="J2" s="3">
         <f>I2-1</f>
-        <v>-5.9176224744096118E-2</v>
+        <v>-4.1017866500824396E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3527,12 +5611,19 @@
       </c>
     </row>
     <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <f>B4/B3</f>
+        <v>0.04</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <f>B3/B2</f>
-        <v>1000</v>
+        <v>1176.4705882352941</v>
       </c>
       <c r="H5" s="5">
         <f>SUMIF($A$9:$A$60,"network",$C$9:$C$60)/1000</f>
@@ -3540,11 +5631,11 @@
       </c>
       <c r="I5" s="3">
         <f>G5/H5</f>
-        <v>0.83239688683564328</v>
+        <v>0.97929045510075685</v>
       </c>
       <c r="J5" s="3">
         <f>I5-1</f>
-        <v>-0.16760311316435672</v>
+        <v>-2.0709544899243149E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3553,7 +5644,7 @@
       </c>
       <c r="G6">
         <f>B4/B2</f>
-        <v>40</v>
+        <v>47.058823529411768</v>
       </c>
       <c r="H6" s="5">
         <f>H5/(B3/B4)</f>
@@ -3561,14 +5652,21 @@
       </c>
       <c r="I6" s="3">
         <f>G6/H6</f>
-        <v>0.83239688683564328</v>
+        <v>0.97929045510075696</v>
       </c>
       <c r="J6" s="3">
         <f>I6-1</f>
-        <v>-0.16760311316435672</v>
+        <v>-2.0709544899243038E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <f>C10</f>
+        <v>389165</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3583,6 +5681,13 @@
       <c r="C8" s="2">
         <v>41943040</v>
       </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <f>C58</f>
+        <v>288049</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -3593,6 +5698,10 @@
       </c>
       <c r="C9">
         <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G8/G7</f>
+        <v>0.74017190651780096</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4168,18 +6277,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
@@ -4190,7 +6299,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>307</v>
+        <v>320</v>
+      </c>
+      <c r="C1" s="10">
+        <f>B3*(B3/B4)/H3</f>
+        <v>326.51400371398796</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -4204,17 +6317,18 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B4/H6</f>
+        <v>81.56030296933875</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4">
         <f>G3+G5</f>
-        <v>16157.980456026058</v>
+        <v>15827.205882352941</v>
       </c>
       <c r="H2" s="4">
         <f>C70/1000</f>
@@ -4222,11 +6336,11 @@
       </c>
       <c r="I2" s="3">
         <f>G2/H2</f>
-        <v>1.0342441253080674</v>
+        <v>1.0130718222127808</v>
       </c>
       <c r="J2" s="3">
         <f>I2-1</f>
-        <v>3.4244125308067419E-2</v>
+        <v>1.3071822212780804E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4241,7 +6355,7 @@
       </c>
       <c r="G3" s="5">
         <f>B3/B4*G4</f>
-        <v>14657.980456026058</v>
+        <v>14062.5</v>
       </c>
       <c r="H3" s="5">
         <f>SUMIF($A$9:$A$70,"read",$C$9:$C$70)/1000</f>
@@ -4249,11 +6363,11 @@
       </c>
       <c r="I3" s="3">
         <f>G3/H3</f>
-        <v>1.0635635300129902</v>
+        <v>1.0203562616062125</v>
       </c>
       <c r="J3" s="3">
         <f>I3-1</f>
-        <v>6.3563530012990199E-2</v>
+        <v>2.0356261606212511E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4268,7 +6382,7 @@
       </c>
       <c r="G4" s="5">
         <f>B3/B1</f>
-        <v>488.59934853420197</v>
+        <v>468.75</v>
       </c>
       <c r="H4" s="5">
         <f>H3/(B3/B4)</f>
@@ -4276,20 +6390,26 @@
       </c>
       <c r="I4" s="3">
         <f>G4/H4</f>
-        <v>1.0635635300129902</v>
+        <v>1.0203562616062125</v>
       </c>
       <c r="J4" s="3">
         <f>I4-1</f>
-        <v>6.3563530012990199E-2</v>
+        <v>2.0356261606212511E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.04</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <f>B3/B2</f>
-        <v>1500</v>
+        <v>1764.7058823529412</v>
       </c>
       <c r="H5" s="5">
         <f>SUMIF($A$9:$A$70,"network",$C$9:$C$70)/1000</f>
@@ -4297,11 +6417,11 @@
       </c>
       <c r="I5" s="3">
         <f>G5/H5</f>
-        <v>0.8156030296933876</v>
+        <v>0.95953297610986776</v>
       </c>
       <c r="J5" s="3">
         <f>I5-1</f>
-        <v>-0.1843969703066124</v>
+        <v>-4.0467023890132237E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4310,7 +6430,7 @@
       </c>
       <c r="G6">
         <f>B4/B2</f>
-        <v>50</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="H6" s="5">
         <f>H5/(B3/B4)</f>
@@ -4318,11 +6438,20 @@
       </c>
       <c r="I6" s="3">
         <f>G6/H6</f>
-        <v>0.8156030296933876</v>
+        <v>0.95953297610986765</v>
       </c>
       <c r="J6" s="3">
         <f>I6-1</f>
-        <v>-0.1843969703066124</v>
+        <v>-4.0467023890132348E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <f>C10</f>
+        <v>531431</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4335,6 +6464,13 @@
       <c r="C8" s="2">
         <v>52428800</v>
       </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <f>C68</f>
+        <v>354670</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -4346,6 +6482,10 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="G9" s="3">
+        <f>G8/G7</f>
+        <v>0.6673867350606193</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -5020,6 +7160,1381 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>310</v>
+      </c>
+      <c r="C1" s="10">
+        <f>B3*(B3/B4)/H3</f>
+        <v>311.63927180871877</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B4/H6</f>
+        <v>80.041397410740842</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <f>G3+G5</f>
+        <v>18481.973434535103</v>
+      </c>
+      <c r="H2" s="4">
+        <f>H3+H5</f>
+        <v>18542.898000000001</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2/H2</f>
+        <v>0.9967143989324162</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2-1</f>
+        <v>-3.2856010675837988E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>200000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5">
+        <f>B3/B4*G4</f>
+        <v>16129.032258064515</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUMIF($A$9:$A$70,"read",$C$9:$C$70)/1000</f>
+        <v>16044.191000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3/H3</f>
+        <v>1.0052879735765121</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3-1</f>
+        <v>5.2879735765121172E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <f>B3/B1</f>
+        <v>645.16129032258061</v>
+      </c>
+      <c r="H4" s="5">
+        <f>H3/(B3/B4)</f>
+        <v>641.76764000000003</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4/H4</f>
+        <v>1.0052879735765121</v>
+      </c>
+      <c r="J4" s="3">
+        <f>I4-1</f>
+        <v>5.2879735765121172E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>B3/B2</f>
+        <v>2352.9411764705883</v>
+      </c>
+      <c r="H5" s="5">
+        <f>SUMIF($A$9:$A$70,"network",$C$9:$C$70)/1000</f>
+        <v>2498.7069999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G5/H5</f>
+        <v>0.94166349894989221</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5-1</f>
+        <v>-5.8336501050107792E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f>B4/B2</f>
+        <v>94.117647058823536</v>
+      </c>
+      <c r="H6" s="5">
+        <f>H5/(B3/B4)</f>
+        <v>99.948279999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <f>G6/H6</f>
+        <v>0.94166349894989232</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6-1</f>
+        <v>-5.8336501050107681E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <f>C10</f>
+        <v>739150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>83886080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <f>C58</f>
+        <v>472625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G8/G7</f>
+        <v>0.63941689778799971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>739150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>103135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>735668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>99744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>741496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>99806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>727354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>99930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>742777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>99857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>739348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>99839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>709905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>99748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>702173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>99797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>695326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>99866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>683648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>99831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>670911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>99849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>663026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>99737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>656961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>99763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>641942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>99819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>629103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>99732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>616206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>99817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>626601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>99725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>613167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>99773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>603943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>99754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>584946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>99806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>572558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>99906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>523388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>99701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>480296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>99972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>471673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>99741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>472625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>100059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62">
+        <v>739150</v>
+      </c>
+      <c r="F62">
+        <f>C62/1000</f>
+        <v>739.15</v>
+      </c>
+      <c r="G62">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63">
+        <v>735668</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F86" si="0">C63/1000</f>
+        <v>735.66800000000001</v>
+      </c>
+      <c r="G63">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64">
+        <v>741496</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>741.49599999999998</v>
+      </c>
+      <c r="G64">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65">
+        <v>727354</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>727.35400000000004</v>
+      </c>
+      <c r="G65">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66">
+        <v>742777</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>742.77700000000004</v>
+      </c>
+      <c r="G66">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67">
+        <v>739348</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>739.34799999999996</v>
+      </c>
+      <c r="G67">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68">
+        <v>709905</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>709.90499999999997</v>
+      </c>
+      <c r="G68">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69">
+        <v>702173</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>702.173</v>
+      </c>
+      <c r="G69">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70">
+        <v>695326</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>695.32600000000002</v>
+      </c>
+      <c r="G70">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71">
+        <v>683648</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>683.64800000000002</v>
+      </c>
+      <c r="G71">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72">
+        <v>670911</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>670.91099999999994</v>
+      </c>
+      <c r="G72">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73">
+        <v>663026</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>663.02599999999995</v>
+      </c>
+      <c r="G73">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74">
+        <v>656961</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>656.96100000000001</v>
+      </c>
+      <c r="G74">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75">
+        <v>641942</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>641.94200000000001</v>
+      </c>
+      <c r="G75">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76">
+        <v>629103</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>629.10299999999995</v>
+      </c>
+      <c r="G76">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77">
+        <v>616206</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>616.20600000000002</v>
+      </c>
+      <c r="G77">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78">
+        <v>626601</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>626.601</v>
+      </c>
+      <c r="G78">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79">
+        <v>613167</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>613.16700000000003</v>
+      </c>
+      <c r="G79">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80">
+        <v>603943</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>603.94299999999998</v>
+      </c>
+      <c r="G80">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81">
+        <v>584946</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>584.94600000000003</v>
+      </c>
+      <c r="G81">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82">
+        <v>572558</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>572.55799999999999</v>
+      </c>
+      <c r="G82">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83">
+        <v>523388</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>523.38800000000003</v>
+      </c>
+      <c r="G83">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84">
+        <v>480296</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>480.29599999999999</v>
+      </c>
+      <c r="G84">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85">
+        <v>471673</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>471.673</v>
+      </c>
+      <c r="G85">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86">
+        <v>472625</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>472.625</v>
+      </c>
+      <c r="G86">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90">
+        <v>103135</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F114" si="1">C90/1000</f>
+        <v>103.13500000000001</v>
+      </c>
+      <c r="G90">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91">
+        <v>99744</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>99.744</v>
+      </c>
+      <c r="G91">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92">
+        <v>99806</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>99.805999999999997</v>
+      </c>
+      <c r="G92">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93">
+        <v>99930</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>99.93</v>
+      </c>
+      <c r="G93">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94">
+        <v>99857</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>99.856999999999999</v>
+      </c>
+      <c r="G94">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95">
+        <v>99839</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>99.838999999999999</v>
+      </c>
+      <c r="G95">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96">
+        <v>99748</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>99.748000000000005</v>
+      </c>
+      <c r="G96">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97">
+        <v>99797</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>99.796999999999997</v>
+      </c>
+      <c r="G97">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98">
+        <v>99866</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>99.866</v>
+      </c>
+      <c r="G98">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99">
+        <v>99831</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>99.831000000000003</v>
+      </c>
+      <c r="G99">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100">
+        <v>99849</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>99.849000000000004</v>
+      </c>
+      <c r="G100">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101">
+        <v>99737</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>99.736999999999995</v>
+      </c>
+      <c r="G101">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="C102">
+        <v>99763</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>99.763000000000005</v>
+      </c>
+      <c r="G102">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="C103">
+        <v>99819</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>99.819000000000003</v>
+      </c>
+      <c r="G103">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="C104">
+        <v>99732</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>99.731999999999999</v>
+      </c>
+      <c r="G104">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105">
+        <v>99817</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>99.816999999999993</v>
+      </c>
+      <c r="G105">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106">
+        <v>99725</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>99.724999999999994</v>
+      </c>
+      <c r="G106">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107">
+        <v>99773</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>99.772999999999996</v>
+      </c>
+      <c r="G107">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108">
+        <v>99754</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>99.754000000000005</v>
+      </c>
+      <c r="G108">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109">
+        <v>99806</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>99.805999999999997</v>
+      </c>
+      <c r="G109">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110">
+        <v>99906</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>99.906000000000006</v>
+      </c>
+      <c r="G110">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111">
+        <v>99701</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>99.700999999999993</v>
+      </c>
+      <c r="G111">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="C112">
+        <v>99972</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>99.971999999999994</v>
+      </c>
+      <c r="G112">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113">
+        <v>99741</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>99.741</v>
+      </c>
+      <c r="G113">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114">
+        <v>100059</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>100.059</v>
+      </c>
+      <c r="G114">
+        <v>94.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/experiments/meth1-logs/chunk-size/1g.xlsx
+++ b/experiments/meth1-logs/chunk-size/1g.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="323"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="323" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PQ Sort" sheetId="1" r:id="rId1"/>
@@ -230,8 +230,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,7 +341,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -373,6 +381,10 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -412,6 +424,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,11 +766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117054952"/>
-        <c:axId val="2116232888"/>
+        <c:axId val="-2105358072"/>
+        <c:axId val="-2105364104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117054952"/>
+        <c:axId val="-2105358072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116232888"/>
+        <c:crossAx val="-2105364104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116232888"/>
+        <c:axId val="-2105364104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -827,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117054952"/>
+        <c:crossAx val="-2105358072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,11 +935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2117261048"/>
-        <c:axId val="2117258088"/>
+        <c:axId val="-2102788808"/>
+        <c:axId val="-2102785864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117261048"/>
+        <c:axId val="-2102788808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117258088"/>
+        <c:crossAx val="-2102785864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117258088"/>
+        <c:axId val="-2102785864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117261048"/>
+        <c:crossAx val="-2102788808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,11 +1054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116760520"/>
-        <c:axId val="2116625320"/>
+        <c:axId val="-2102748504"/>
+        <c:axId val="-2102745560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116760520"/>
+        <c:axId val="-2102748504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116625320"/>
+        <c:crossAx val="-2102745560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116625320"/>
+        <c:axId val="-2102745560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116760520"/>
+        <c:crossAx val="-2102748504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,11 +1342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144680984"/>
-        <c:axId val="-2144682056"/>
+        <c:axId val="-2102717256"/>
+        <c:axId val="-2102714280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144680984"/>
+        <c:axId val="-2102717256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144682056"/>
+        <c:crossAx val="-2102714280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1348,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144682056"/>
+        <c:axId val="-2102714280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="400.0"/>
@@ -1360,7 +1376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144680984"/>
+        <c:crossAx val="-2102717256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,11 +1637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2116745960"/>
-        <c:axId val="-2119629144"/>
+        <c:axId val="-2102684824"/>
+        <c:axId val="-2102681848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2116745960"/>
+        <c:axId val="-2102684824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119629144"/>
+        <c:crossAx val="-2102681848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1642,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119629144"/>
+        <c:axId val="-2102681848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116745960"/>
+        <c:crossAx val="-2102684824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,11 +1875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116156568"/>
-        <c:axId val="2116153576"/>
+        <c:axId val="-2105441208"/>
+        <c:axId val="-2105444200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116156568"/>
+        <c:axId val="-2105441208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116153576"/>
+        <c:crossAx val="-2105444200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116153576"/>
+        <c:axId val="-2105444200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,14 +1908,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116156568"/>
+        <c:crossAx val="-2105441208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1944,7 +1959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2085,11 +2099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146131144"/>
-        <c:axId val="-2142773352"/>
+        <c:axId val="-2105482024"/>
+        <c:axId val="-2105485064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146131144"/>
+        <c:axId val="-2105482024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142773352"/>
+        <c:crossAx val="-2105485064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142773352"/>
+        <c:axId val="-2105485064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,14 +2132,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146131144"/>
+        <c:crossAx val="-2105482024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2155,7 +2168,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2235,11 +2247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143185176"/>
-        <c:axId val="-2142323528"/>
+        <c:axId val="-2105510744"/>
+        <c:axId val="-2105513768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143185176"/>
+        <c:axId val="-2105510744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142323528"/>
+        <c:crossAx val="-2105513768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142323528"/>
+        <c:axId val="-2105513768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143185176"/>
+        <c:crossAx val="-2105510744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,7 +2332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2461,11 +2472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124647944"/>
-        <c:axId val="2090665000"/>
+        <c:axId val="-2102965384"/>
+        <c:axId val="-2102962408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124647944"/>
+        <c:axId val="-2102965384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090665000"/>
+        <c:crossAx val="-2102962408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090665000"/>
+        <c:axId val="-2102962408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,14 +2505,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124647944"/>
+        <c:crossAx val="-2102965384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2531,7 +2541,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2603,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115960424"/>
-        <c:axId val="-2115548248"/>
+        <c:axId val="-2102938136"/>
+        <c:axId val="-2102935112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115960424"/>
+        <c:axId val="-2102938136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115548248"/>
+        <c:crossAx val="-2102935112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115548248"/>
+        <c:axId val="-2102935112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -2637,7 +2646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115960424"/>
+        <c:crossAx val="-2102938136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,11 +2807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116116328"/>
-        <c:axId val="2116113368"/>
+        <c:axId val="-2102893496"/>
+        <c:axId val="-2102890520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116116328"/>
+        <c:axId val="-2102893496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116113368"/>
+        <c:crossAx val="-2102890520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2819,7 +2828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116113368"/>
+        <c:axId val="-2102890520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116116328"/>
+        <c:crossAx val="-2102893496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,11 +2931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118041000"/>
-        <c:axId val="2118043960"/>
+        <c:axId val="-2102866824"/>
+        <c:axId val="-2102863880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118041000"/>
+        <c:axId val="-2102866824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118043960"/>
+        <c:crossAx val="-2102863880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118043960"/>
+        <c:axId val="-2102863880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,7 +2963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118041000"/>
+        <c:crossAx val="-2102866824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,11 +3050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118089928"/>
-        <c:axId val="2118092872"/>
+        <c:axId val="-2102828056"/>
+        <c:axId val="-2102825112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118089928"/>
+        <c:axId val="-2102828056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118092872"/>
+        <c:crossAx val="-2102825112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118092872"/>
+        <c:axId val="-2102825112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,7 +3082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118089928"/>
+        <c:crossAx val="-2102828056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3851,7 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4598,7 +4607,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7174,8 +7183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
